--- a/Labour_stats/occupation_fitness.xlsx
+++ b/Labour_stats/occupation_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,49 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruthholliday/Documents/GitHub/GroupProject_Fitness/health_fitness/Labour_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{04B8A8AD-1011-614B-82D0-98E5C5409DEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E8001C-8469-E24F-9DDF-3B870C898FD2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16080"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="occupation_fitness copy" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.14" hidden="1">'occupation_fitness copy'!$A$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'occupation_fitness copy'!$A$2</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'occupation_fitness copy'!$A$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'occupation_fitness copy'!$A$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'occupation_fitness copy'!$A$5</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'occupation_fitness copy'!$A$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'occupation_fitness copy'!$A$7</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'occupation_fitness copy'!$B$1:$T$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'occupation_fitness copy'!$B$2:$T$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'occupation_fitness copy'!$B$3:$T$3</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'occupation_fitness copy'!$B$4:$T$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'occupation_fitness copy'!$B$5:$T$5</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'occupation_fitness copy'!$B$6:$T$6</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'occupation_fitness copy'!$B$7:$T$7</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'occupation_fitness copy'!$A$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'occupation_fitness copy'!$A$2</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'occupation_fitness copy'!$B$4:$T$4</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'occupation_fitness copy'!$B$5:$T$5</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">'occupation_fitness copy'!$B$6:$T$6</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">'occupation_fitness copy'!$B$7:$T$7</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'occupation_fitness copy'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'occupation_fitness copy'!$A$4</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'occupation_fitness copy'!$A$5</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'occupation_fitness copy'!$A$6</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'occupation_fitness copy'!$A$7</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'occupation_fitness copy'!$B$1:$T$1</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'occupation_fitness copy'!$B$2:$T$2</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'occupation_fitness copy'!$B$3:$T$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'occupation_fitness copy'!$A$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'occupation_fitness copy'!$B$13:$T$13</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'occupation_fitness copy'!$A$13</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'occupation_fitness copy'!$B$13:$T$13</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Occupation_Title</t>
   </si>
@@ -132,12 +115,24 @@
   <si>
     <t>20-36 yrs old</t>
   </si>
+  <si>
+    <t>total_employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growth of </t>
+  </si>
+  <si>
+    <t>percentage of growth</t>
+  </si>
+  <si>
+    <t>total fitness jobs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,6 +263,30 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -614,8 +633,32 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -689,6 +732,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fitness Occupations ('99-'17)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1893,7 +1961,360 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'occupation_fitness copy'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_employment</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'occupation_fitness copy'!$B$13:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>110300000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113850000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127980410</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>127523760</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>127567910</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>128127360</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>130307840</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>132604980</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>134354250</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>135185230</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>130647610</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>127097160</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>128278550</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0">
+                  <c:v>130287700</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>132588810</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0">
+                  <c:v>135128260</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0">
+                  <c:v>137896660</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0">
+                  <c:v>140400040</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>142549250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70F5-7C41-8CA9-6AE31ABC5A38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="45558256"/>
+        <c:axId val="50959168"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="45558256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50959168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50959168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45558256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2438,20 +2859,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139698</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>55034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2471,6 +3408,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9B8760-F776-6C4F-9559-19846E023480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2775,16 +3748,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +3829,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2908,7 +3891,7 @@
         <v>280080</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2970,7 +3953,7 @@
         <v>11150</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3032,7 +4015,7 @@
         <v>25010</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3094,7 +4077,7 @@
         <v>16630</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +4139,7 @@
         <v>58040</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3218,70 +4201,305 @@
         <v>62980</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6">
+        <f>SUM(B2:B7)</f>
+        <v>252510</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" ref="C9:T9" si="0">SUM(C2:C7)</f>
+        <v>281720</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>285380</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>296860</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>305130</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>316120</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>333910</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>360150</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>379220</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>391220</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="0"/>
+        <v>390440</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
+        <v>386440</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="0"/>
+        <v>393770</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="0"/>
+        <v>400220</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="0"/>
+        <v>409460</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="0"/>
+        <v>410080</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="0"/>
+        <v>408210</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="0"/>
+        <v>428190</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="0"/>
+        <v>453890</v>
+      </c>
+      <c r="U9" s="11">
+        <f>T9-B9</f>
+        <v>201380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="12">
+        <f>((C9-B9)/C9)</f>
+        <v>0.10368450944199915</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" ref="D10:T10" si="1">((D9-C9)/D9)</f>
+        <v>1.2825005256149696E-2</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="1"/>
+        <v>3.8671427608973928E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="1"/>
+        <v>2.7103201913938321E-2</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>3.4765279007971654E-2</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="1"/>
+        <v>5.3277829355215474E-2</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="1"/>
+        <v>7.2858531167569074E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="1"/>
+        <v>5.0287432097463211E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="1"/>
+        <v>3.0673278462246305E-2</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.9977461325683846E-3</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="1"/>
+        <v>-1.0350895352447986E-2</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="1"/>
+        <v>1.8614927495746249E-2</v>
+      </c>
+      <c r="O10" s="12">
+        <f t="shared" si="1"/>
+        <v>1.6116136125131179E-2</v>
+      </c>
+      <c r="P10" s="12">
+        <f t="shared" si="1"/>
+        <v>2.2566306843159283E-2</v>
+      </c>
+      <c r="Q10" s="12">
+        <f t="shared" si="1"/>
+        <v>1.5119001170503317E-3</v>
+      </c>
+      <c r="R10" s="12">
+        <f t="shared" si="1"/>
+        <v>-4.5809754783077338E-3</v>
+      </c>
+      <c r="S10" s="12">
+        <f t="shared" si="1"/>
+        <v>4.6661528760596933E-2</v>
+      </c>
+      <c r="T10" s="12">
+        <f t="shared" si="1"/>
+        <v>5.6621648417017341E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I12" t="s">
         <v>15</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K12" t="s">
         <v>17</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L12" t="s">
         <v>18</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M12" t="s">
         <v>19</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N12" t="s">
         <v>20</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O12" t="s">
         <v>21</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P12" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q12" t="s">
         <v>23</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R12" t="s">
         <v>24</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S12" t="s">
         <v>25</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T12" t="s">
         <v>26</v>
+      </c>
+      <c r="U12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6">
+        <v>110300000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>113850000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>127980410</v>
+      </c>
+      <c r="E13" s="1">
+        <v>127523760</v>
+      </c>
+      <c r="F13" s="2">
+        <v>127567910</v>
+      </c>
+      <c r="G13" s="4">
+        <v>128127360</v>
+      </c>
+      <c r="H13" s="4">
+        <v>130307840</v>
+      </c>
+      <c r="I13" s="5">
+        <v>132604980</v>
+      </c>
+      <c r="J13" s="4">
+        <v>134354250</v>
+      </c>
+      <c r="K13" s="4">
+        <v>135185230</v>
+      </c>
+      <c r="L13" s="4">
+        <v>130647610</v>
+      </c>
+      <c r="M13" s="7">
+        <v>127097160</v>
+      </c>
+      <c r="N13" s="8">
+        <v>128278550</v>
+      </c>
+      <c r="O13" s="9">
+        <v>130287700</v>
+      </c>
+      <c r="P13" s="9">
+        <v>132588810</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>135128260</v>
+      </c>
+      <c r="R13" s="9">
+        <v>137896660</v>
+      </c>
+      <c r="S13" s="10">
+        <v>140400040</v>
+      </c>
+      <c r="T13" s="3">
+        <v>142549250</v>
+      </c>
+      <c r="U13" s="6">
+        <f>T13-B13</f>
+        <v>32249250</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:T9" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>